--- a/2023demo/datafiles/18.xlsx
+++ b/2023demo/datafiles/18.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Киселева\ПУМ_2022\III\18\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\generator\ege\2023demo\datafiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8955"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34,16 +34,223 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="54"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="54"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="54"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color indexed="54"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -149,11 +356,136 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -166,6 +498,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -446,15 +781,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30:P39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>27</v>
       </c>
@@ -516,7 +854,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>27</v>
       </c>
@@ -578,7 +916,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>30</v>
       </c>
@@ -640,7 +978,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>25</v>
       </c>
@@ -702,7 +1040,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>27</v>
       </c>
@@ -764,7 +1102,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>28</v>
       </c>
@@ -826,7 +1164,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>29</v>
       </c>
@@ -888,7 +1226,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>26</v>
       </c>
@@ -950,7 +1288,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>29</v>
       </c>
@@ -1012,7 +1350,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>26</v>
       </c>
@@ -1074,7 +1412,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>30</v>
       </c>
@@ -1136,7 +1474,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>27</v>
       </c>
@@ -1198,7 +1536,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>25</v>
       </c>
@@ -1260,7 +1598,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>27</v>
       </c>
@@ -1322,7 +1660,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>26</v>
       </c>
@@ -1384,7 +1722,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>27</v>
       </c>
@@ -1446,7 +1784,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>29</v>
       </c>
@@ -1508,7 +1846,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>29</v>
       </c>
@@ -1570,7 +1908,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>30</v>
       </c>
@@ -1632,7 +1970,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>25</v>
       </c>
@@ -1692,6 +2030,1651 @@
       </c>
       <c r="T20" s="9">
         <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <f>A1</f>
+        <v>27</v>
+      </c>
+      <c r="B22" s="2">
+        <f>A22+B1</f>
+        <v>56</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" ref="C22:T22" si="0">B22+C1</f>
+        <v>81</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="0"/>
+        <v>162</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="0"/>
+        <v>192</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="0"/>
+        <v>222</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="0"/>
+        <v>249</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="0"/>
+        <v>275</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" si="0"/>
+        <v>302</v>
+      </c>
+      <c r="L22" s="2">
+        <f t="shared" si="0"/>
+        <v>332</v>
+      </c>
+      <c r="M22" s="2">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="N22" s="2">
+        <f t="shared" si="0"/>
+        <v>385</v>
+      </c>
+      <c r="O22" s="2">
+        <f t="shared" si="0"/>
+        <v>414</v>
+      </c>
+      <c r="P22" s="2">
+        <f t="shared" si="0"/>
+        <v>444</v>
+      </c>
+      <c r="Q22" s="2">
+        <f t="shared" si="0"/>
+        <v>470</v>
+      </c>
+      <c r="R22" s="2">
+        <f t="shared" si="0"/>
+        <v>495</v>
+      </c>
+      <c r="S22" s="2">
+        <f t="shared" si="0"/>
+        <v>522</v>
+      </c>
+      <c r="T22" s="2">
+        <f t="shared" si="0"/>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <f>A22+A2</f>
+        <v>54</v>
+      </c>
+      <c r="B23" s="12">
+        <f>B2+MIN(B22,A23)</f>
+        <v>83</v>
+      </c>
+      <c r="C23" s="5">
+        <f>C2+C22</f>
+        <v>106</v>
+      </c>
+      <c r="D23" s="13">
+        <f>D2+MIN(D22,C23)</f>
+        <v>133</v>
+      </c>
+      <c r="E23" s="13">
+        <f>E2+MIN(E22,D23)</f>
+        <v>163</v>
+      </c>
+      <c r="F23" s="13">
+        <f>F2+MIN(F22,E23)</f>
+        <v>188</v>
+      </c>
+      <c r="G23" s="13">
+        <f>G2+MIN(G22,F23)</f>
+        <v>213</v>
+      </c>
+      <c r="H23" s="13">
+        <f>H2+MIN(H22,G23)</f>
+        <v>239</v>
+      </c>
+      <c r="I23" s="12">
+        <f>I2+MIN(I22,H23)</f>
+        <v>264</v>
+      </c>
+      <c r="J23" s="5">
+        <f>J2+J22</f>
+        <v>305</v>
+      </c>
+      <c r="K23" s="5">
+        <f>K2+MIN(K22,J23)</f>
+        <v>327</v>
+      </c>
+      <c r="L23" s="5">
+        <f>L2+MIN(L22,K23)</f>
+        <v>352</v>
+      </c>
+      <c r="M23" s="5">
+        <f>M2+MIN(M22,L23)</f>
+        <v>382</v>
+      </c>
+      <c r="N23" s="5">
+        <f>N2+MIN(N22,M23)</f>
+        <v>407</v>
+      </c>
+      <c r="O23" s="5">
+        <f>O2+MIN(O22,N23)</f>
+        <v>437</v>
+      </c>
+      <c r="P23" s="5">
+        <f>P2+MIN(P22,O23)</f>
+        <v>465</v>
+      </c>
+      <c r="Q23" s="5">
+        <f>Q2+MIN(Q22,P23)</f>
+        <v>493</v>
+      </c>
+      <c r="R23" s="5">
+        <f>R2+MIN(R22,Q23)</f>
+        <v>522</v>
+      </c>
+      <c r="S23" s="5">
+        <f>S2+MIN(S22,R23)</f>
+        <v>549</v>
+      </c>
+      <c r="T23" s="5">
+        <f>T2+MIN(T22,S23)</f>
+        <v>576</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <f t="shared" ref="A24:A41" si="1">A23+A3</f>
+        <v>84</v>
+      </c>
+      <c r="B24" s="12">
+        <f>B3+MIN(B23,A24)</f>
+        <v>113</v>
+      </c>
+      <c r="C24" s="5">
+        <f t="shared" ref="C24:C29" si="2">C3+C23</f>
+        <v>132</v>
+      </c>
+      <c r="D24" s="5">
+        <f>D3+C24</f>
+        <v>158</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" ref="E24:H24" si="3">E3+D24</f>
+        <v>188</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="3"/>
+        <v>216</v>
+      </c>
+      <c r="G24" s="5">
+        <f t="shared" si="3"/>
+        <v>243</v>
+      </c>
+      <c r="H24" s="5">
+        <f t="shared" si="3"/>
+        <v>268</v>
+      </c>
+      <c r="I24" s="12">
+        <f>I3+MIN(I23,H24)</f>
+        <v>293</v>
+      </c>
+      <c r="J24" s="5">
+        <f t="shared" ref="J24:J30" si="4">J3+J23</f>
+        <v>335</v>
+      </c>
+      <c r="K24" s="5">
+        <f>K3+MIN(K23,J24)</f>
+        <v>353</v>
+      </c>
+      <c r="L24" s="5">
+        <f>L3+MIN(L23,K24)</f>
+        <v>379</v>
+      </c>
+      <c r="M24" s="5">
+        <f>M3+MIN(M23,L24)</f>
+        <v>406</v>
+      </c>
+      <c r="N24" s="5">
+        <f>N3+MIN(N23,M24)</f>
+        <v>432</v>
+      </c>
+      <c r="O24" s="5">
+        <f>O3+MIN(O23,N24)</f>
+        <v>462</v>
+      </c>
+      <c r="P24" s="5">
+        <f>P3+MIN(P23,O24)</f>
+        <v>492</v>
+      </c>
+      <c r="Q24" s="5">
+        <f>Q3+MIN(Q23,P24)</f>
+        <v>517</v>
+      </c>
+      <c r="R24" s="5">
+        <f>R3+MIN(R23,Q24)</f>
+        <v>543</v>
+      </c>
+      <c r="S24" s="5">
+        <f>S3+MIN(S23,R24)</f>
+        <v>572</v>
+      </c>
+      <c r="T24" s="5">
+        <f>T3+MIN(T23,S24)</f>
+        <v>601</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="B25" s="12">
+        <f>B4+MIN(B24,A25)</f>
+        <v>139</v>
+      </c>
+      <c r="C25" s="5">
+        <f t="shared" si="2"/>
+        <v>159</v>
+      </c>
+      <c r="D25" s="5">
+        <f>D4+MIN(D24,C25)</f>
+        <v>187</v>
+      </c>
+      <c r="E25" s="5">
+        <f>E4+MIN(E24,D25)</f>
+        <v>214</v>
+      </c>
+      <c r="F25" s="5">
+        <f>F4+MIN(F24,E25)</f>
+        <v>240</v>
+      </c>
+      <c r="G25" s="5">
+        <f>G4+MIN(G24,F25)</f>
+        <v>269</v>
+      </c>
+      <c r="H25" s="5">
+        <f>H4+MIN(H24,G25)</f>
+        <v>296</v>
+      </c>
+      <c r="I25" s="12">
+        <f>I4+MIN(I24,H25)</f>
+        <v>322</v>
+      </c>
+      <c r="J25" s="5">
+        <f t="shared" si="4"/>
+        <v>360</v>
+      </c>
+      <c r="K25" s="5">
+        <f>K4+MIN(K24,J25)</f>
+        <v>380</v>
+      </c>
+      <c r="L25" s="5">
+        <f>L4+MIN(L24,K25)</f>
+        <v>408</v>
+      </c>
+      <c r="M25" s="5">
+        <f>M4+MIN(M24,L25)</f>
+        <v>435</v>
+      </c>
+      <c r="N25" s="5">
+        <f>N4+MIN(N24,M25)</f>
+        <v>461</v>
+      </c>
+      <c r="O25" s="5">
+        <f>O4+MIN(O24,N25)</f>
+        <v>488</v>
+      </c>
+      <c r="P25" s="5">
+        <f>P4+MIN(P24,O25)</f>
+        <v>517</v>
+      </c>
+      <c r="Q25" s="5">
+        <f>Q4+MIN(Q24,P25)</f>
+        <v>546</v>
+      </c>
+      <c r="R25" s="5">
+        <f>R4+MIN(R24,Q25)</f>
+        <v>570</v>
+      </c>
+      <c r="S25" s="5">
+        <f>S4+MIN(S24,R25)</f>
+        <v>600</v>
+      </c>
+      <c r="T25" s="5">
+        <f>T4+MIN(T24,S25)</f>
+        <v>626</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <f t="shared" si="1"/>
+        <v>136</v>
+      </c>
+      <c r="B26" s="12">
+        <f>B5+MIN(B25,A26)</f>
+        <v>166</v>
+      </c>
+      <c r="C26" s="5">
+        <f t="shared" si="2"/>
+        <v>186</v>
+      </c>
+      <c r="D26" s="12">
+        <f>D5+MIN(D25,C26)</f>
+        <v>214</v>
+      </c>
+      <c r="E26" s="5">
+        <f>E5+E25</f>
+        <v>242</v>
+      </c>
+      <c r="F26" s="5">
+        <f>F5+MIN(F25,E26)</f>
+        <v>266</v>
+      </c>
+      <c r="G26" s="5">
+        <f>G5+MIN(G25,F26)</f>
+        <v>292</v>
+      </c>
+      <c r="H26" s="5">
+        <f>H5+MIN(H25,G26)</f>
+        <v>320</v>
+      </c>
+      <c r="I26" s="12">
+        <f>I5+MIN(I25,H26)</f>
+        <v>347</v>
+      </c>
+      <c r="J26" s="5">
+        <f t="shared" si="4"/>
+        <v>385</v>
+      </c>
+      <c r="K26" s="5">
+        <f>K5+MIN(K25,J26)</f>
+        <v>408</v>
+      </c>
+      <c r="L26" s="5">
+        <f>L5+MIN(L25,K26)</f>
+        <v>438</v>
+      </c>
+      <c r="M26" s="5">
+        <f>M5+MIN(M25,L26)</f>
+        <v>463</v>
+      </c>
+      <c r="N26" s="5">
+        <f>N5+MIN(N25,M26)</f>
+        <v>488</v>
+      </c>
+      <c r="O26" s="5">
+        <f>O5+MIN(O25,N26)</f>
+        <v>516</v>
+      </c>
+      <c r="P26" s="5">
+        <f>P5+MIN(P25,O26)</f>
+        <v>544</v>
+      </c>
+      <c r="Q26" s="5">
+        <f>Q5+MIN(Q25,P26)</f>
+        <v>572</v>
+      </c>
+      <c r="R26" s="5">
+        <f>R5+MIN(R25,Q26)</f>
+        <v>599</v>
+      </c>
+      <c r="S26" s="5">
+        <f>S5+MIN(S25,R26)</f>
+        <v>629</v>
+      </c>
+      <c r="T26" s="5">
+        <f>T5+MIN(T25,S26)</f>
+        <v>654</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <f t="shared" si="1"/>
+        <v>164</v>
+      </c>
+      <c r="B27" s="12">
+        <f>B6+MIN(B26,A27)</f>
+        <v>194</v>
+      </c>
+      <c r="C27" s="5">
+        <f t="shared" si="2"/>
+        <v>214</v>
+      </c>
+      <c r="D27" s="12">
+        <f>D6+MIN(D26,C27)</f>
+        <v>239</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" ref="E27:E34" si="5">E6+E26</f>
+        <v>267</v>
+      </c>
+      <c r="F27" s="5">
+        <f>F6+MIN(F26,E27)</f>
+        <v>291</v>
+      </c>
+      <c r="G27" s="5">
+        <f>G6+MIN(G26,F27)</f>
+        <v>320</v>
+      </c>
+      <c r="H27" s="5">
+        <f>H6+MIN(H26,G27)</f>
+        <v>345</v>
+      </c>
+      <c r="I27" s="12">
+        <f>I6+MIN(I26,H27)</f>
+        <v>375</v>
+      </c>
+      <c r="J27" s="5">
+        <f t="shared" si="4"/>
+        <v>410</v>
+      </c>
+      <c r="K27" s="5">
+        <f>K6+MIN(K26,J27)</f>
+        <v>435</v>
+      </c>
+      <c r="L27" s="12">
+        <f>L6+MIN(L26,K27)</f>
+        <v>464</v>
+      </c>
+      <c r="M27" s="5">
+        <f>M6+M26</f>
+        <v>490</v>
+      </c>
+      <c r="N27" s="5">
+        <f>N6+MIN(N26,M27)</f>
+        <v>514</v>
+      </c>
+      <c r="O27" s="5">
+        <f>O6+MIN(O26,N27)</f>
+        <v>544</v>
+      </c>
+      <c r="P27" s="5">
+        <f>P6+MIN(P26,O27)</f>
+        <v>573</v>
+      </c>
+      <c r="Q27" s="5">
+        <f>Q6+MIN(Q26,P27)</f>
+        <v>597</v>
+      </c>
+      <c r="R27" s="5">
+        <f>R6+MIN(R26,Q27)</f>
+        <v>626</v>
+      </c>
+      <c r="S27" s="5">
+        <f>S6+MIN(S26,R27)</f>
+        <v>653</v>
+      </c>
+      <c r="T27" s="5">
+        <f>T6+MIN(T26,S27)</f>
+        <v>681</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <f t="shared" si="1"/>
+        <v>193</v>
+      </c>
+      <c r="B28" s="12">
+        <f>B7+MIN(B27,A28)</f>
+        <v>218</v>
+      </c>
+      <c r="C28" s="5">
+        <f t="shared" si="2"/>
+        <v>239</v>
+      </c>
+      <c r="D28" s="12">
+        <f>D7+MIN(D27,C28)</f>
+        <v>267</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" si="5"/>
+        <v>297</v>
+      </c>
+      <c r="F28" s="5">
+        <f>F7+MIN(F27,E28)</f>
+        <v>317</v>
+      </c>
+      <c r="G28" s="5">
+        <f>G7+MIN(G27,F28)</f>
+        <v>344</v>
+      </c>
+      <c r="H28" s="5">
+        <f>H7+MIN(H27,G28)</f>
+        <v>370</v>
+      </c>
+      <c r="I28" s="12">
+        <f>I7+MIN(I27,H28)</f>
+        <v>400</v>
+      </c>
+      <c r="J28" s="5">
+        <f t="shared" si="4"/>
+        <v>436</v>
+      </c>
+      <c r="K28" s="5">
+        <f>K7+MIN(K27,J28)</f>
+        <v>462</v>
+      </c>
+      <c r="L28" s="12">
+        <f>L7+MIN(L27,K28)</f>
+        <v>487</v>
+      </c>
+      <c r="M28" s="5">
+        <f t="shared" ref="M28:M35" si="6">M7+M27</f>
+        <v>515</v>
+      </c>
+      <c r="N28" s="5">
+        <f>N7+MIN(N27,M28)</f>
+        <v>543</v>
+      </c>
+      <c r="O28" s="5">
+        <f>O7+MIN(O27,N28)</f>
+        <v>569</v>
+      </c>
+      <c r="P28" s="5">
+        <f>P7+MIN(P27,O28)</f>
+        <v>598</v>
+      </c>
+      <c r="Q28" s="5">
+        <f>Q7+MIN(Q27,P28)</f>
+        <v>626</v>
+      </c>
+      <c r="R28" s="5">
+        <f>R7+MIN(R27,Q28)</f>
+        <v>654</v>
+      </c>
+      <c r="S28" s="5">
+        <f>S7+MIN(S27,R28)</f>
+        <v>683</v>
+      </c>
+      <c r="T28" s="5">
+        <f>T7+MIN(T27,S28)</f>
+        <v>711</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <f t="shared" si="1"/>
+        <v>219</v>
+      </c>
+      <c r="B29" s="12">
+        <f>B8+MIN(B28,A29)</f>
+        <v>246</v>
+      </c>
+      <c r="C29" s="5">
+        <f t="shared" si="2"/>
+        <v>267</v>
+      </c>
+      <c r="D29" s="12">
+        <f>D8+MIN(D28,C29)</f>
+        <v>296</v>
+      </c>
+      <c r="E29" s="5">
+        <f t="shared" si="5"/>
+        <v>323</v>
+      </c>
+      <c r="F29" s="5">
+        <f>F8+MIN(F28,E29)</f>
+        <v>347</v>
+      </c>
+      <c r="G29" s="5">
+        <f>G8+MIN(G28,F29)</f>
+        <v>373</v>
+      </c>
+      <c r="H29" s="5">
+        <f>H8+MIN(H28,G29)</f>
+        <v>399</v>
+      </c>
+      <c r="I29" s="12">
+        <f>I8+MIN(I28,H29)</f>
+        <v>424</v>
+      </c>
+      <c r="J29" s="5">
+        <f t="shared" si="4"/>
+        <v>465</v>
+      </c>
+      <c r="K29" s="5">
+        <f>K8+MIN(K28,J29)</f>
+        <v>488</v>
+      </c>
+      <c r="L29" s="12">
+        <f>L8+MIN(L28,K29)</f>
+        <v>513</v>
+      </c>
+      <c r="M29" s="5">
+        <f t="shared" si="6"/>
+        <v>545</v>
+      </c>
+      <c r="N29" s="5">
+        <f>N8+MIN(N28,M29)</f>
+        <v>568</v>
+      </c>
+      <c r="O29" s="5">
+        <f>O8+MIN(O28,N29)</f>
+        <v>597</v>
+      </c>
+      <c r="P29" s="5">
+        <f>P8+MIN(P28,O29)</f>
+        <v>625</v>
+      </c>
+      <c r="Q29" s="5">
+        <f>Q8+MIN(Q28,P29)</f>
+        <v>650</v>
+      </c>
+      <c r="R29" s="5">
+        <f>R8+MIN(R28,Q29)</f>
+        <v>677</v>
+      </c>
+      <c r="S29" s="5">
+        <f>S8+MIN(S28,R29)</f>
+        <v>707</v>
+      </c>
+      <c r="T29" s="5">
+        <f>T8+MIN(T28,S29)</f>
+        <v>735</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <f t="shared" si="1"/>
+        <v>248</v>
+      </c>
+      <c r="B30" s="5">
+        <f>B9+MIN(B29,A30)</f>
+        <v>272</v>
+      </c>
+      <c r="C30" s="5">
+        <f>C9+MIN(C29,B30)</f>
+        <v>297</v>
+      </c>
+      <c r="D30" s="12">
+        <f>D9+MIN(D29,C30)</f>
+        <v>325</v>
+      </c>
+      <c r="E30" s="5">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+      <c r="F30" s="5">
+        <f>F9+MIN(F29,E30)</f>
+        <v>375</v>
+      </c>
+      <c r="G30" s="5">
+        <f>G9+MIN(G29,F30)</f>
+        <v>401</v>
+      </c>
+      <c r="H30" s="5">
+        <f>H9+MIN(H29,G30)</f>
+        <v>424</v>
+      </c>
+      <c r="I30" s="12">
+        <f>I9+MIN(I29,H30)</f>
+        <v>452</v>
+      </c>
+      <c r="J30" s="5">
+        <f t="shared" si="4"/>
+        <v>490</v>
+      </c>
+      <c r="K30" s="5">
+        <f>K9+MIN(K29,J30)</f>
+        <v>513</v>
+      </c>
+      <c r="L30" s="12">
+        <f>L9+MIN(L29,K30)</f>
+        <v>540</v>
+      </c>
+      <c r="M30" s="5">
+        <f t="shared" si="6"/>
+        <v>574</v>
+      </c>
+      <c r="N30" s="5">
+        <f>N9+MIN(N29,M30)</f>
+        <v>597</v>
+      </c>
+      <c r="O30" s="12">
+        <f>O9+MIN(O29,N30)</f>
+        <v>624</v>
+      </c>
+      <c r="P30" s="5">
+        <f>P9+P29</f>
+        <v>651</v>
+      </c>
+      <c r="Q30" s="5">
+        <f>Q9+MIN(Q29,P30)</f>
+        <v>679</v>
+      </c>
+      <c r="R30" s="5">
+        <f>R9+MIN(R29,Q30)</f>
+        <v>704</v>
+      </c>
+      <c r="S30" s="5">
+        <f>S9+MIN(S29,R30)</f>
+        <v>732</v>
+      </c>
+      <c r="T30" s="5">
+        <f>T9+MIN(T29,S30)</f>
+        <v>758</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <f t="shared" si="1"/>
+        <v>274</v>
+      </c>
+      <c r="B31" s="5">
+        <f>B10+MIN(B30,A31)</f>
+        <v>300</v>
+      </c>
+      <c r="C31" s="5">
+        <f>C10+MIN(C30,B31)</f>
+        <v>325</v>
+      </c>
+      <c r="D31" s="12">
+        <f>D10+MIN(D30,C31)</f>
+        <v>350</v>
+      </c>
+      <c r="E31" s="5">
+        <f t="shared" si="5"/>
+        <v>376</v>
+      </c>
+      <c r="F31" s="12">
+        <f>F10+MIN(F30,E31)</f>
+        <v>402</v>
+      </c>
+      <c r="G31" s="5">
+        <f>G10+G30</f>
+        <v>431</v>
+      </c>
+      <c r="H31" s="5">
+        <f>H10+MIN(H30,G31)</f>
+        <v>451</v>
+      </c>
+      <c r="I31" s="5">
+        <f>I10+MIN(I30,H31)</f>
+        <v>478</v>
+      </c>
+      <c r="J31" s="5">
+        <f>J10+MIN(J30,I31)</f>
+        <v>505</v>
+      </c>
+      <c r="K31" s="5">
+        <f>K10+MIN(K30,J31)</f>
+        <v>535</v>
+      </c>
+      <c r="L31" s="12">
+        <f>L10+MIN(L30,K31)</f>
+        <v>561</v>
+      </c>
+      <c r="M31" s="5">
+        <f t="shared" si="6"/>
+        <v>604</v>
+      </c>
+      <c r="N31" s="5">
+        <f>N10+MIN(N30,M31)</f>
+        <v>622</v>
+      </c>
+      <c r="O31" s="12">
+        <f>O10+MIN(O30,N31)</f>
+        <v>647</v>
+      </c>
+      <c r="P31" s="5">
+        <f t="shared" ref="P31:P39" si="7">P10+P30</f>
+        <v>677</v>
+      </c>
+      <c r="Q31" s="5">
+        <f>Q10+MIN(Q30,P31)</f>
+        <v>706</v>
+      </c>
+      <c r="R31" s="5">
+        <f>R10+MIN(R30,Q31)</f>
+        <v>729</v>
+      </c>
+      <c r="S31" s="5">
+        <f>S10+MIN(S30,R31)</f>
+        <v>755</v>
+      </c>
+      <c r="T31" s="5">
+        <f>T10+MIN(T30,S31)</f>
+        <v>783</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <f t="shared" si="1"/>
+        <v>304</v>
+      </c>
+      <c r="B32" s="5">
+        <f>B11+MIN(B31,A32)</f>
+        <v>330</v>
+      </c>
+      <c r="C32" s="5">
+        <f>C11+MIN(C31,B32)</f>
+        <v>352</v>
+      </c>
+      <c r="D32" s="12">
+        <f>D11+MIN(D31,C32)</f>
+        <v>379</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" si="5"/>
+        <v>402</v>
+      </c>
+      <c r="F32" s="12">
+        <f>F11+MIN(F31,E32)</f>
+        <v>428</v>
+      </c>
+      <c r="G32" s="5">
+        <f t="shared" ref="G32:G39" si="8">G11+G31</f>
+        <v>461</v>
+      </c>
+      <c r="H32" s="5">
+        <f>H11+MIN(H31,G32)</f>
+        <v>476</v>
+      </c>
+      <c r="I32" s="5">
+        <f>I11+MIN(I31,H32)</f>
+        <v>501</v>
+      </c>
+      <c r="J32" s="5">
+        <f>J11+MIN(J31,I32)</f>
+        <v>531</v>
+      </c>
+      <c r="K32" s="5">
+        <f>K11+MIN(K31,J32)</f>
+        <v>557</v>
+      </c>
+      <c r="L32" s="12">
+        <f>L11+MIN(L31,K32)</f>
+        <v>584</v>
+      </c>
+      <c r="M32" s="5">
+        <f t="shared" si="6"/>
+        <v>631</v>
+      </c>
+      <c r="N32" s="5">
+        <f>N11+MIN(N31,M32)</f>
+        <v>647</v>
+      </c>
+      <c r="O32" s="12">
+        <f>O11+MIN(O31,N32)</f>
+        <v>672</v>
+      </c>
+      <c r="P32" s="5">
+        <f t="shared" si="7"/>
+        <v>702</v>
+      </c>
+      <c r="Q32" s="5">
+        <f>Q11+MIN(Q31,P32)</f>
+        <v>732</v>
+      </c>
+      <c r="R32" s="5">
+        <f>R11+MIN(R31,Q32)</f>
+        <v>757</v>
+      </c>
+      <c r="S32" s="5">
+        <f>S11+MIN(S31,R32)</f>
+        <v>781</v>
+      </c>
+      <c r="T32" s="5">
+        <f>T11+MIN(T31,S32)</f>
+        <v>806</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <f t="shared" si="1"/>
+        <v>331</v>
+      </c>
+      <c r="B33" s="5">
+        <f>B12+MIN(B32,A33)</f>
+        <v>356</v>
+      </c>
+      <c r="C33" s="5">
+        <f>C12+MIN(C32,B33)</f>
+        <v>381</v>
+      </c>
+      <c r="D33" s="12">
+        <f>D12+MIN(D32,C33)</f>
+        <v>404</v>
+      </c>
+      <c r="E33" s="5">
+        <f t="shared" si="5"/>
+        <v>431</v>
+      </c>
+      <c r="F33" s="12">
+        <f>F12+MIN(F32,E33)</f>
+        <v>453</v>
+      </c>
+      <c r="G33" s="5">
+        <f t="shared" si="8"/>
+        <v>491</v>
+      </c>
+      <c r="H33" s="5">
+        <f>H12+MIN(H32,G33)</f>
+        <v>503</v>
+      </c>
+      <c r="I33" s="5">
+        <f>I12+MIN(I32,H33)</f>
+        <v>526</v>
+      </c>
+      <c r="J33" s="5">
+        <f>J12+MIN(J32,I33)</f>
+        <v>555</v>
+      </c>
+      <c r="K33" s="5">
+        <f>K12+MIN(K32,J33)</f>
+        <v>584</v>
+      </c>
+      <c r="L33" s="12">
+        <f>L12+MIN(L32,K33)</f>
+        <v>610</v>
+      </c>
+      <c r="M33" s="5">
+        <f t="shared" si="6"/>
+        <v>656</v>
+      </c>
+      <c r="N33" s="5">
+        <f>N12+MIN(N32,M33)</f>
+        <v>677</v>
+      </c>
+      <c r="O33" s="12">
+        <f>O12+MIN(O32,N33)</f>
+        <v>701</v>
+      </c>
+      <c r="P33" s="5">
+        <f t="shared" si="7"/>
+        <v>727</v>
+      </c>
+      <c r="Q33" s="5">
+        <f>Q12+MIN(Q32,P33)</f>
+        <v>755</v>
+      </c>
+      <c r="R33" s="5">
+        <f>R12+MIN(R32,Q33)</f>
+        <v>785</v>
+      </c>
+      <c r="S33" s="5">
+        <f>S12+MIN(S32,R33)</f>
+        <v>807</v>
+      </c>
+      <c r="T33" s="5">
+        <f>T12+MIN(T32,S33)</f>
+        <v>832</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <f t="shared" si="1"/>
+        <v>356</v>
+      </c>
+      <c r="B34" s="5">
+        <f>B13+MIN(B33,A34)</f>
+        <v>385</v>
+      </c>
+      <c r="C34" s="5">
+        <f>C13+MIN(C33,B34)</f>
+        <v>408</v>
+      </c>
+      <c r="D34" s="12">
+        <f>D13+MIN(D33,C34)</f>
+        <v>431</v>
+      </c>
+      <c r="E34" s="5">
+        <f t="shared" si="5"/>
+        <v>460</v>
+      </c>
+      <c r="F34" s="12">
+        <f>F13+MIN(F33,E34)</f>
+        <v>478</v>
+      </c>
+      <c r="G34" s="5">
+        <f t="shared" si="8"/>
+        <v>521</v>
+      </c>
+      <c r="H34" s="5">
+        <f>H13+MIN(H33,G34)</f>
+        <v>530</v>
+      </c>
+      <c r="I34" s="5">
+        <f>I13+MIN(I33,H34)</f>
+        <v>551</v>
+      </c>
+      <c r="J34" s="5">
+        <f>J13+MIN(J33,I34)</f>
+        <v>580</v>
+      </c>
+      <c r="K34" s="5">
+        <f>K13+MIN(K33,J34)</f>
+        <v>605</v>
+      </c>
+      <c r="L34" s="12">
+        <f>L13+MIN(L33,K34)</f>
+        <v>631</v>
+      </c>
+      <c r="M34" s="5">
+        <f t="shared" si="6"/>
+        <v>686</v>
+      </c>
+      <c r="N34" s="5">
+        <f>N13+MIN(N33,M34)</f>
+        <v>704</v>
+      </c>
+      <c r="O34" s="12">
+        <f>O13+MIN(O33,N34)</f>
+        <v>727</v>
+      </c>
+      <c r="P34" s="5">
+        <f t="shared" si="7"/>
+        <v>754</v>
+      </c>
+      <c r="Q34" s="5">
+        <f>Q13+MIN(Q33,P34)</f>
+        <v>784</v>
+      </c>
+      <c r="R34" s="5">
+        <f>R13+MIN(R33,Q34)</f>
+        <v>810</v>
+      </c>
+      <c r="S34" s="5">
+        <f>S13+MIN(S33,R34)</f>
+        <v>834</v>
+      </c>
+      <c r="T34" s="5">
+        <f>T13+MIN(T33,S34)</f>
+        <v>860</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <f t="shared" si="1"/>
+        <v>383</v>
+      </c>
+      <c r="B35" s="5">
+        <f>B14+MIN(B34,A35)</f>
+        <v>413</v>
+      </c>
+      <c r="C35" s="5">
+        <f>C14+MIN(C34,B35)</f>
+        <v>438</v>
+      </c>
+      <c r="D35" s="5">
+        <f>D14+MIN(D34,C35)</f>
+        <v>457</v>
+      </c>
+      <c r="E35" s="5">
+        <f>E14+MIN(E34,D35)</f>
+        <v>485</v>
+      </c>
+      <c r="F35" s="12">
+        <f>F14+MIN(F34,E35)</f>
+        <v>505</v>
+      </c>
+      <c r="G35" s="5">
+        <f t="shared" si="8"/>
+        <v>546</v>
+      </c>
+      <c r="H35" s="5">
+        <f>H14+MIN(H34,G35)</f>
+        <v>559</v>
+      </c>
+      <c r="I35" s="5">
+        <f>I14+MIN(I34,H35)</f>
+        <v>577</v>
+      </c>
+      <c r="J35" s="5">
+        <f>J14+MIN(J34,I35)</f>
+        <v>604</v>
+      </c>
+      <c r="K35" s="5">
+        <f>K14+MIN(K34,J35)</f>
+        <v>634</v>
+      </c>
+      <c r="L35" s="12">
+        <f>L14+MIN(L34,K35)</f>
+        <v>657</v>
+      </c>
+      <c r="M35" s="5">
+        <f t="shared" si="6"/>
+        <v>714</v>
+      </c>
+      <c r="N35" s="5">
+        <f>N14+MIN(N34,M35)</f>
+        <v>732</v>
+      </c>
+      <c r="O35" s="12">
+        <f>O14+MIN(O34,N35)</f>
+        <v>755</v>
+      </c>
+      <c r="P35" s="5">
+        <f t="shared" si="7"/>
+        <v>784</v>
+      </c>
+      <c r="Q35" s="5">
+        <f>Q14+MIN(Q34,P35)</f>
+        <v>810</v>
+      </c>
+      <c r="R35" s="5">
+        <f>R14+MIN(R34,Q35)</f>
+        <v>839</v>
+      </c>
+      <c r="S35" s="5">
+        <f>S14+MIN(S34,R35)</f>
+        <v>861</v>
+      </c>
+      <c r="T35" s="5">
+        <f>T14+MIN(T34,S35)</f>
+        <v>890</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <f t="shared" si="1"/>
+        <v>409</v>
+      </c>
+      <c r="B36" s="5">
+        <f>B15+MIN(B35,A36)</f>
+        <v>436</v>
+      </c>
+      <c r="C36" s="5">
+        <f>C15+MIN(C35,B36)</f>
+        <v>464</v>
+      </c>
+      <c r="D36" s="5">
+        <f>D15+MIN(D35,C36)</f>
+        <v>484</v>
+      </c>
+      <c r="E36" s="5">
+        <f>E15+MIN(E35,D36)</f>
+        <v>510</v>
+      </c>
+      <c r="F36" s="12">
+        <f>F15+MIN(F35,E36)</f>
+        <v>533</v>
+      </c>
+      <c r="G36" s="5">
+        <f t="shared" si="8"/>
+        <v>572</v>
+      </c>
+      <c r="H36" s="5">
+        <f>H15+MIN(H35,G36)</f>
+        <v>585</v>
+      </c>
+      <c r="I36" s="5">
+        <f>I15+MIN(I35,H36)</f>
+        <v>603</v>
+      </c>
+      <c r="J36" s="5">
+        <f>J15+MIN(J35,I36)</f>
+        <v>631</v>
+      </c>
+      <c r="K36" s="5">
+        <f>K15+MIN(K35,J36)</f>
+        <v>660</v>
+      </c>
+      <c r="L36" s="5">
+        <f>L15+MIN(L35,K36)</f>
+        <v>684</v>
+      </c>
+      <c r="M36" s="5">
+        <f>M15+MIN(M35,L36)</f>
+        <v>710</v>
+      </c>
+      <c r="N36" s="5">
+        <f>N15+MIN(N35,M36)</f>
+        <v>738</v>
+      </c>
+      <c r="O36" s="12">
+        <f>O15+MIN(O35,N36)</f>
+        <v>767</v>
+      </c>
+      <c r="P36" s="5">
+        <f t="shared" si="7"/>
+        <v>814</v>
+      </c>
+      <c r="Q36" s="5">
+        <f>Q15+MIN(Q35,P36)</f>
+        <v>840</v>
+      </c>
+      <c r="R36" s="5">
+        <f>R15+MIN(R35,Q36)</f>
+        <v>868</v>
+      </c>
+      <c r="S36" s="5">
+        <f>S15+MIN(S35,R36)</f>
+        <v>888</v>
+      </c>
+      <c r="T36" s="5">
+        <f>T15+MIN(T35,S36)</f>
+        <v>917</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <f t="shared" si="1"/>
+        <v>436</v>
+      </c>
+      <c r="B37" s="5">
+        <f>B16+MIN(B36,A37)</f>
+        <v>463</v>
+      </c>
+      <c r="C37" s="5">
+        <f>C16+MIN(C36,B37)</f>
+        <v>489</v>
+      </c>
+      <c r="D37" s="5">
+        <f>D16+MIN(D36,C37)</f>
+        <v>514</v>
+      </c>
+      <c r="E37" s="5">
+        <f>E16+MIN(E36,D37)</f>
+        <v>536</v>
+      </c>
+      <c r="F37" s="12">
+        <f>F16+MIN(F36,E37)</f>
+        <v>562</v>
+      </c>
+      <c r="G37" s="5">
+        <f t="shared" si="8"/>
+        <v>599</v>
+      </c>
+      <c r="H37" s="5">
+        <f>H16+MIN(H36,G37)</f>
+        <v>613</v>
+      </c>
+      <c r="I37" s="5">
+        <f>I16+MIN(I36,H37)</f>
+        <v>633</v>
+      </c>
+      <c r="J37" s="5">
+        <f>J16+MIN(J36,I37)</f>
+        <v>658</v>
+      </c>
+      <c r="K37" s="5">
+        <f>K16+MIN(K36,J37)</f>
+        <v>686</v>
+      </c>
+      <c r="L37" s="5">
+        <f>L16+MIN(L36,K37)</f>
+        <v>714</v>
+      </c>
+      <c r="M37" s="5">
+        <f>M16+MIN(M36,L37)</f>
+        <v>736</v>
+      </c>
+      <c r="N37" s="5">
+        <f>N16+MIN(N36,M37)</f>
+        <v>765</v>
+      </c>
+      <c r="O37" s="12">
+        <f>O16+MIN(O36,N37)</f>
+        <v>794</v>
+      </c>
+      <c r="P37" s="5">
+        <f t="shared" si="7"/>
+        <v>842</v>
+      </c>
+      <c r="Q37" s="5">
+        <f>Q16+MIN(Q36,P37)</f>
+        <v>868</v>
+      </c>
+      <c r="R37" s="5">
+        <f>R16+MIN(R36,Q37)</f>
+        <v>894</v>
+      </c>
+      <c r="S37" s="5">
+        <f>S16+MIN(S36,R37)</f>
+        <v>914</v>
+      </c>
+      <c r="T37" s="5">
+        <f>T16+MIN(T36,S37)</f>
+        <v>939</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <f t="shared" si="1"/>
+        <v>465</v>
+      </c>
+      <c r="B38" s="5">
+        <f>B17+MIN(B37,A38)</f>
+        <v>493</v>
+      </c>
+      <c r="C38" s="5">
+        <f>C17+MIN(C37,B38)</f>
+        <v>519</v>
+      </c>
+      <c r="D38" s="5">
+        <f>D17+MIN(D37,C38)</f>
+        <v>543</v>
+      </c>
+      <c r="E38" s="5">
+        <f>E17+MIN(E37,D38)</f>
+        <v>566</v>
+      </c>
+      <c r="F38" s="12">
+        <f>F17+MIN(F37,E38)</f>
+        <v>588</v>
+      </c>
+      <c r="G38" s="5">
+        <f t="shared" si="8"/>
+        <v>627</v>
+      </c>
+      <c r="H38" s="5">
+        <f>H17+MIN(H37,G38)</f>
+        <v>639</v>
+      </c>
+      <c r="I38" s="13">
+        <f>I17+MIN(I37,H38)</f>
+        <v>661</v>
+      </c>
+      <c r="J38" s="13">
+        <f>J17+MIN(J37,I38)</f>
+        <v>688</v>
+      </c>
+      <c r="K38" s="13">
+        <f>K17+MIN(K37,J38)</f>
+        <v>711</v>
+      </c>
+      <c r="L38" s="13">
+        <f>L17+MIN(L37,K38)</f>
+        <v>740</v>
+      </c>
+      <c r="M38" s="13">
+        <f>M17+MIN(M37,L38)</f>
+        <v>761</v>
+      </c>
+      <c r="N38" s="13">
+        <f>N17+MIN(N37,M38)</f>
+        <v>788</v>
+      </c>
+      <c r="O38" s="12">
+        <f>O17+MIN(O37,N38)</f>
+        <v>814</v>
+      </c>
+      <c r="P38" s="5">
+        <f t="shared" si="7"/>
+        <v>867</v>
+      </c>
+      <c r="Q38" s="5">
+        <f>Q17+MIN(Q37,P38)</f>
+        <v>892</v>
+      </c>
+      <c r="R38" s="5">
+        <f>R17+MIN(R37,Q38)</f>
+        <v>921</v>
+      </c>
+      <c r="S38" s="5">
+        <f>S17+MIN(S37,R38)</f>
+        <v>941</v>
+      </c>
+      <c r="T38" s="5">
+        <f>T17+MIN(T37,S38)</f>
+        <v>967</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <f t="shared" si="1"/>
+        <v>494</v>
+      </c>
+      <c r="B39" s="5">
+        <f>B18+MIN(B38,A39)</f>
+        <v>523</v>
+      </c>
+      <c r="C39" s="5">
+        <f>C18+MIN(C38,B39)</f>
+        <v>545</v>
+      </c>
+      <c r="D39" s="5">
+        <f>D18+MIN(D38,C39)</f>
+        <v>571</v>
+      </c>
+      <c r="E39" s="5">
+        <f>E18+MIN(E38,D39)</f>
+        <v>592</v>
+      </c>
+      <c r="F39" s="12">
+        <f>F18+MIN(F38,E39)</f>
+        <v>614</v>
+      </c>
+      <c r="G39" s="5">
+        <f t="shared" si="8"/>
+        <v>656</v>
+      </c>
+      <c r="H39" s="5">
+        <f>H18+MIN(H38,G39)</f>
+        <v>667</v>
+      </c>
+      <c r="I39" s="5">
+        <f>I18+H39</f>
+        <v>696</v>
+      </c>
+      <c r="J39" s="5">
+        <f t="shared" ref="J39:N39" si="9">J18+I39</f>
+        <v>725</v>
+      </c>
+      <c r="K39" s="5">
+        <f t="shared" si="9"/>
+        <v>750</v>
+      </c>
+      <c r="L39" s="5">
+        <f t="shared" si="9"/>
+        <v>777</v>
+      </c>
+      <c r="M39" s="5">
+        <f t="shared" si="9"/>
+        <v>802</v>
+      </c>
+      <c r="N39" s="5">
+        <f t="shared" si="9"/>
+        <v>831</v>
+      </c>
+      <c r="O39" s="12">
+        <f>O18+MIN(O38,N39)</f>
+        <v>841</v>
+      </c>
+      <c r="P39" s="5">
+        <f t="shared" si="7"/>
+        <v>896</v>
+      </c>
+      <c r="Q39" s="5">
+        <f>Q18+MIN(Q38,P39)</f>
+        <v>917</v>
+      </c>
+      <c r="R39" s="5">
+        <f>R18+MIN(R38,Q39)</f>
+        <v>946</v>
+      </c>
+      <c r="S39" s="5">
+        <f>S18+MIN(S38,R39)</f>
+        <v>970</v>
+      </c>
+      <c r="T39" s="5">
+        <f>T18+MIN(T38,S39)</f>
+        <v>995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <f t="shared" si="1"/>
+        <v>524</v>
+      </c>
+      <c r="B40" s="5">
+        <f>B19+MIN(B39,A40)</f>
+        <v>553</v>
+      </c>
+      <c r="C40" s="5">
+        <f>C19+MIN(C39,B40)</f>
+        <v>573</v>
+      </c>
+      <c r="D40" s="5">
+        <f>D19+MIN(D39,C40)</f>
+        <v>598</v>
+      </c>
+      <c r="E40" s="5">
+        <f>E19+MIN(E39,D40)</f>
+        <v>622</v>
+      </c>
+      <c r="F40" s="5">
+        <f>F19+MIN(F39,E40)</f>
+        <v>641</v>
+      </c>
+      <c r="G40" s="5">
+        <f>G19+MIN(G39,F40)</f>
+        <v>669</v>
+      </c>
+      <c r="H40" s="5">
+        <f>H19+MIN(H39,G40)</f>
+        <v>693</v>
+      </c>
+      <c r="I40" s="5">
+        <f>I19+MIN(I39,H40)</f>
+        <v>720</v>
+      </c>
+      <c r="J40" s="5">
+        <f>J19+MIN(J39,I40)</f>
+        <v>745</v>
+      </c>
+      <c r="K40" s="5">
+        <f>K19+MIN(K39,J40)</f>
+        <v>771</v>
+      </c>
+      <c r="L40" s="5">
+        <f>L19+MIN(L39,K40)</f>
+        <v>796</v>
+      </c>
+      <c r="M40" s="5">
+        <f>M19+MIN(M39,L40)</f>
+        <v>824</v>
+      </c>
+      <c r="N40" s="5">
+        <f>N19+MIN(N39,M40)</f>
+        <v>850</v>
+      </c>
+      <c r="O40" s="5">
+        <f>O19+MIN(O39,N40)</f>
+        <v>869</v>
+      </c>
+      <c r="P40" s="5">
+        <f>P19+MIN(P39,O40)</f>
+        <v>895</v>
+      </c>
+      <c r="Q40" s="5">
+        <f>Q19+MIN(Q39,P40)</f>
+        <v>922</v>
+      </c>
+      <c r="R40" s="5">
+        <f>R19+MIN(R39,Q40)</f>
+        <v>949</v>
+      </c>
+      <c r="S40" s="5">
+        <f>S19+MIN(S39,R40)</f>
+        <v>976</v>
+      </c>
+      <c r="T40" s="5">
+        <f>T19+MIN(T39,S40)</f>
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <f t="shared" si="1"/>
+        <v>549</v>
+      </c>
+      <c r="B41" s="5">
+        <f>B20+MIN(B40,A41)</f>
+        <v>576</v>
+      </c>
+      <c r="C41" s="5">
+        <f>C20+MIN(C40,B41)</f>
+        <v>603</v>
+      </c>
+      <c r="D41" s="5">
+        <f>D20+MIN(D40,C41)</f>
+        <v>624</v>
+      </c>
+      <c r="E41" s="5">
+        <f>E20+MIN(E40,D41)</f>
+        <v>651</v>
+      </c>
+      <c r="F41" s="5">
+        <f>F20+MIN(F40,E41)</f>
+        <v>669</v>
+      </c>
+      <c r="G41" s="5">
+        <f>G20+MIN(G40,F41)</f>
+        <v>694</v>
+      </c>
+      <c r="H41" s="5">
+        <f>H20+MIN(H40,G41)</f>
+        <v>722</v>
+      </c>
+      <c r="I41" s="5">
+        <f>I20+MIN(I40,H41)</f>
+        <v>747</v>
+      </c>
+      <c r="J41" s="5">
+        <f>J20+MIN(J40,I41)</f>
+        <v>772</v>
+      </c>
+      <c r="K41" s="5">
+        <f>K20+MIN(K40,J41)</f>
+        <v>798</v>
+      </c>
+      <c r="L41" s="5">
+        <f>L20+MIN(L40,K41)</f>
+        <v>823</v>
+      </c>
+      <c r="M41" s="5">
+        <f>M20+MIN(M40,L41)</f>
+        <v>850</v>
+      </c>
+      <c r="N41" s="5">
+        <f>N20+MIN(N40,M41)</f>
+        <v>879</v>
+      </c>
+      <c r="O41" s="5">
+        <f>O20+MIN(O40,N41)</f>
+        <v>894</v>
+      </c>
+      <c r="P41" s="5">
+        <f>P20+MIN(P40,O41)</f>
+        <v>919</v>
+      </c>
+      <c r="Q41" s="5">
+        <f>Q20+MIN(Q40,P41)</f>
+        <v>949</v>
+      </c>
+      <c r="R41" s="5">
+        <f>R20+MIN(R40,Q41)</f>
+        <v>975</v>
+      </c>
+      <c r="S41" s="5">
+        <f>S20+MIN(S40,R41)</f>
+        <v>1004</v>
+      </c>
+      <c r="T41" s="5">
+        <f>T20+MIN(T40,S41)</f>
+        <v>1026</v>
       </c>
     </row>
   </sheetData>
